--- a/biology/Zoologie/Elanodactylus/Elanodactylus.xlsx
+++ b/biology/Zoologie/Elanodactylus/Elanodactylus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elanodactylus prolatus
 Elanodactylus est un genre éteint de grands ptérosaures ptérodactyloïdes, à très courte queue, de la famille des cténochasmatidés. Il a été découvert dans le Crétacé inférieur du nord-est de la Chine.
-Il provient de la formation géologique d'Yixian dans un niveau d'âge Aptien de la province chinoise du Liaoning près de la ville de Beipiao[1]. Il appartient au biote de Jehol.
-Une seule espèce est rattachée au genre : Elanodactylus prolatus, décrite en 2008 par Brian Andres et Ji Qiang[1].
+Il provient de la formation géologique d'Yixian dans un niveau d'âge Aptien de la province chinoise du Liaoning près de la ville de Beipiao. Il appartient au biote de Jehol.
+Une seule espèce est rattachée au genre : Elanodactylus prolatus, décrite en 2008 par Brian Andres et Ji Qiang.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Elanodactylus est composé du nom de genre de certains élanions actuels Elanus en référence à ses grandes ailes, et le mot grec dactylus, « doigt », rappelle le doigt qui porte l'aile des ptérosaures. Le nom d'espèce prolatus est le mot latin pour « allongé » pour indiquer la forme particulière de ses vertèbres cervicales médianes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Elanodactylus est composé du nom de genre de certains élanions actuels Elanus en référence à ses grandes ailes, et le mot grec dactylus, « doigt », rappelle le doigt qui porte l'aile des ptérosaures. Le nom d'espèce prolatus est le mot latin pour « allongé » pour indiquer la forme particulière de ses vertèbres cervicales médianes.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elanodactylus prolatus est connu par son spécimen holotype, répertorié NGMC 99-07-1. Il se compose d'un squelette post-crânien partiel d'un individu adulte, avec ses os des ailes, son sternum, sa ceinture pectorale, ses côtes et ses vertèbres cervicales et dorsales[1].
-En 2010, un second spécimen de la même espèce, référencé LPM-R00078, a été découvert dans le même niveau stratigraphique mais dans la ville-préfecture de Chaoyang toujours dans l'ouest de la province du Liaoning. Il s'agit là aussi du squelette incomplet, sans la tête ni les vertèbres cervicales et caudales ; il a été décrit par Chang-Fu Zhou[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elanodactylus prolatus est connu par son spécimen holotype, répertorié NGMC 99-07-1. Il se compose d'un squelette post-crânien partiel d'un individu adulte, avec ses os des ailes, son sternum, sa ceinture pectorale, ses côtes et ses vertèbres cervicales et dorsales.
+En 2010, un second spécimen de la même espèce, référencé LPM-R00078, a été découvert dans le même niveau stratigraphique mais dans la ville-préfecture de Chaoyang toujours dans l'ouest de la province du Liaoning. Il s'agit là aussi du squelette incomplet, sans la tête ni les vertèbres cervicales et caudales ; il a été décrit par Chang-Fu Zhou.
 </t>
         </is>
       </c>
@@ -577,10 +593,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Il s'agit d'un grand ptérosaure dont l'envergure est estimée à 2,50 mètres pour l'holotype et 1,70 m pour les second spécimen[2].
-Il est caractérisé par[1],[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Il s'agit d'un grand ptérosaure dont l'envergure est estimée à 2,50 mètres pour l'holotype et 1,70 m pour les second spécimen.
+Il est caractérisé par, :
 des vertèbres cervicales possédant des exapophyses ;
 des vertèbres cervicales médianes allongées avec un rapport longueur/largeur médiane d'environ quatre fois ;
 des épines neurales extrêmement réduites ;
@@ -615,11 +633,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La présence d'exapophyses sur les vertèbres cervicales est une caractéristique partagée avec les azhdarchidés, ces ptérosaures géants à long cou du Crétacé supérieur. Toutefois les autres traits du  squelette d'Elanodactylus diffèrent de ceux des azhdarchidés.
-L'analyse phylogénétique conduite par B. Andres et Ji Q. les a conduit à le placer dans la famille des cténochasmatidés. Ils ont supposé que la similitude entre les vertèbres cervicales des ctenochasmatidés et des azhdarchidés n'était que le résultat d'une convergence évolutive[1].
-En 2014, B. Andres et ses collègues conduisent une étude phylogénétique qui confirme la position de Elanodactylus parmi les Ctenochasmatoidea au sein des cténochasmatidés,  ils le placent également la sous-famille des gnathosaurinés, comme le montre leur cladogramme ci-dessous[3]. Cette hypothèse est consolidée par une vaste analyse phylogénétique conduite en 2018 par N. R. Longrich, D. M. Martill et B. Andres[4] :
+L'analyse phylogénétique conduite par B. Andres et Ji Q. les a conduit à le placer dans la famille des cténochasmatidés. Ils ont supposé que la similitude entre les vertèbres cervicales des ctenochasmatidés et des azhdarchidés n'était que le résultat d'une convergence évolutive.
+En 2014, B. Andres et ses collègues conduisent une étude phylogénétique qui confirme la position de Elanodactylus parmi les Ctenochasmatoidea au sein des cténochasmatidés,  ils le placent également la sous-famille des gnathosaurinés, comme le montre leur cladogramme ci-dessous. Cette hypothèse est consolidée par une vaste analyse phylogénétique conduite en 2018 par N. R. Longrich, D. M. Martill et B. Andres :
 </t>
         </is>
       </c>
